--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eslam Alaa\Desktop\KSA_COVID19-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD7AAAA-57C4-43CB-84BE-99464B381EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$216</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -741,9 +740,6 @@
     <t>Umluj</t>
   </si>
   <si>
-    <t>املج</t>
-  </si>
-  <si>
     <t>Al Darb</t>
   </si>
   <si>
@@ -1356,9 +1352,6 @@
     <t>Samudah</t>
   </si>
   <si>
-    <t xml:space="preserve">سامودة </t>
-  </si>
-  <si>
     <t>Qaryat</t>
   </si>
   <si>
@@ -1458,9 +1451,6 @@
     <t>Hajrah</t>
   </si>
   <si>
-    <t>الحجرة</t>
-  </si>
-  <si>
     <t>Abu Rakh</t>
   </si>
   <si>
@@ -1477,12 +1467,21 @@
   </si>
   <si>
     <t>ترج</t>
+  </si>
+  <si>
+    <t>أملج</t>
+  </si>
+  <si>
+    <t>سامودة</t>
+  </si>
+  <si>
+    <t>الحجر</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1880,12 +1879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G216"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2320,7 @@
         <v>186</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D19" s="1">
         <v>29.627300000000002</v>
@@ -2551,7 +2550,7 @@
         <v>183</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D29" s="1">
         <v>23.525065000000001</v>
@@ -2896,7 +2895,7 @@
         <v>116</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D44" s="1">
         <v>27.345700000000001</v>
@@ -3149,7 +3148,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D55" s="1">
         <v>18.5474</v>
@@ -3333,7 +3332,7 @@
         <v>94</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D63" s="1">
         <v>22.741800000000001</v>
@@ -3448,7 +3447,7 @@
         <v>199</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D68" s="1">
         <v>21.208628000000001</v>
@@ -3632,7 +3631,7 @@
         <v>98</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D76" s="1">
         <v>19.5718</v>
@@ -3954,7 +3953,7 @@
         <v>200</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D90" s="1">
         <v>20.595102499999999</v>
@@ -3977,7 +3976,7 @@
         <v>222</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D91" s="1">
         <v>20.435752999999998</v>
@@ -4114,8 +4113,8 @@
       <c r="B97" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>235</v>
+      <c r="C97" t="s">
+        <v>478</v>
       </c>
       <c r="D97" s="1">
         <v>25.049199999999999</v>
@@ -4132,13 +4131,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D98" s="1">
         <v>17.734352999999999</v>
@@ -4155,13 +4154,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="D99" s="1">
         <v>26.661256999999999</v>
@@ -4178,13 +4177,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D100" s="1">
         <v>27.557566000000001</v>
@@ -4201,13 +4200,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D101" s="1">
         <v>24.741019999999999</v>
@@ -4224,13 +4223,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D102" s="1">
         <v>25.686066</v>
@@ -4247,13 +4246,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D103" s="1">
         <v>17.237791999999999</v>
@@ -4270,13 +4269,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D104" s="1">
         <v>24.613032</v>
@@ -4293,13 +4292,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D105" s="1">
         <v>22.290050000000001</v>
@@ -4316,13 +4315,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D106" s="1">
         <v>21.05489</v>
@@ -4339,13 +4338,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D107" s="1">
         <v>22.284344999999998</v>
@@ -4362,13 +4361,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D108" s="1">
         <v>26.788481000000001</v>
@@ -4385,13 +4384,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D109" s="1">
         <v>30.072724000000001</v>
@@ -4408,13 +4407,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D110" s="1">
         <v>17.338950000000001</v>
@@ -4431,13 +4430,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D111" s="1">
         <v>19.532979000000001</v>
@@ -4454,13 +4453,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D112" s="1">
         <v>25.279633</v>
@@ -4477,13 +4476,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D113" s="1">
         <v>31.370989999999999</v>
@@ -4500,13 +4499,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D114" s="1">
         <v>18.100155999999998</v>
@@ -4523,13 +4522,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D115" s="1">
         <v>27.267593000000002</v>
@@ -4546,13 +4545,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D116" s="1">
         <v>23.976928000000001</v>
@@ -4569,13 +4568,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D117" s="1">
         <v>35.717683999999998</v>
@@ -4592,13 +4591,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D118" s="1">
         <v>31.514769999999999</v>
@@ -4615,13 +4614,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D119" s="1">
         <v>19.943904</v>
@@ -4638,13 +4637,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D120" s="1">
         <v>31.282564000000001</v>
@@ -4661,13 +4660,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D121" s="1">
         <v>19.573253999999999</v>
@@ -4684,13 +4683,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D122" s="1">
         <v>25.247889000000001</v>
@@ -4707,13 +4706,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="D123" s="1">
         <v>25.115893</v>
@@ -4730,13 +4729,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D124" s="1">
         <v>23.542763999999998</v>
@@ -4753,13 +4752,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D125" s="1">
         <v>20.466460000000001</v>
@@ -4776,13 +4775,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D126" s="1">
         <v>23.774208999999999</v>
@@ -4799,13 +4798,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D127" s="1">
         <v>18.241785</v>
@@ -4822,13 +4821,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D128" s="1">
         <v>27.610130000000002</v>
@@ -4845,13 +4844,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D129" s="1">
         <v>24.540604999999999</v>
@@ -4868,13 +4867,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D130" s="1">
         <v>25.069855</v>
@@ -4914,13 +4913,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D132" s="3">
         <v>25.419733999999998</v>
@@ -4937,13 +4936,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D133" s="1">
         <v>29.285453</v>
@@ -4960,13 +4959,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="D134" s="1">
         <v>18.97634</v>
@@ -4983,13 +4982,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="D135" s="1">
         <v>25.563182000000001</v>
@@ -5006,13 +5005,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D136" s="1">
         <v>17.407972000000001</v>
@@ -5029,13 +5028,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D137" s="1">
         <v>19.919412999999999</v>
@@ -5052,13 +5051,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D138" s="1">
         <v>25.480855999999999</v>
@@ -5075,13 +5074,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D139" s="1">
         <v>25.710602999999999</v>
@@ -5098,13 +5097,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D140" s="1">
         <v>30.589766999999998</v>
@@ -5121,13 +5120,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D141" s="1">
         <v>25.674498</v>
@@ -5144,13 +5143,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D142" s="1">
         <v>22.276098999999999</v>
@@ -5167,13 +5166,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D143" s="1">
         <v>31.665737</v>
@@ -5190,13 +5189,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D144" s="1">
         <v>24.679561</v>
@@ -5213,13 +5212,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D145" s="1">
         <v>19.741637000000001</v>
@@ -5236,13 +5235,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="D146" s="1">
         <v>17.664974000000001</v>
@@ -5259,13 +5258,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D147" s="1">
         <v>24.130382000000001</v>
@@ -5282,13 +5281,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D148" s="1">
         <v>26.516076000000002</v>
@@ -5305,13 +5304,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D149" s="1">
         <v>19.115787999999998</v>
@@ -5328,13 +5327,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="D150" s="1">
         <v>18.793106000000002</v>
@@ -5351,13 +5350,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D151" s="1">
         <v>16.811212999999999</v>
@@ -5374,13 +5373,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D152" s="1">
         <v>27.889050000000001</v>
@@ -5397,13 +5396,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D153" s="1">
         <v>27.378982000000001</v>
@@ -5420,13 +5419,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D154" s="1">
         <v>23.624414000000002</v>
@@ -5443,13 +5442,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D155" s="1">
         <v>27.469104999999999</v>
@@ -5466,13 +5465,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D156" s="1">
         <v>17.981574999999999</v>
@@ -5489,13 +5488,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D157" s="1">
         <v>17.753822</v>
@@ -5512,13 +5511,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D158" s="1">
         <v>17.246535999999999</v>
@@ -5535,13 +5534,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D159" s="1">
         <v>16.711358000000001</v>
@@ -5558,13 +5557,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D160" s="1">
         <v>22.497288999999999</v>
@@ -5581,13 +5580,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D161" s="1">
         <v>21.263856000000001</v>
@@ -5604,13 +5603,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D162" s="1">
         <v>17.110188999999998</v>
@@ -5627,13 +5626,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D163" s="1">
         <v>25.014095000000001</v>
@@ -5650,13 +5649,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D164" s="3">
         <v>27.448889000000001</v>
@@ -5673,13 +5672,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D165" s="1">
         <v>23.905038999999999</v>
@@ -5696,13 +5695,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D166" s="1">
         <v>30.353563999999999</v>
@@ -5719,13 +5718,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D167" s="1">
         <v>18.583217999999999</v>
@@ -5742,13 +5741,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D168" s="1">
         <v>23.406562000000001</v>
@@ -5765,13 +5764,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D169" s="1">
         <v>18.933194</v>
@@ -5788,13 +5787,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D170" s="1">
         <v>18.532356</v>
@@ -5811,13 +5810,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D171" s="1">
         <v>26.501619999999999</v>
@@ -5834,13 +5833,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D172" s="1">
         <v>23.61806</v>
@@ -5857,13 +5856,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D173" s="1">
         <v>21.645588</v>
@@ -5880,13 +5879,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D174" s="1">
         <v>17.920961999999999</v>
@@ -5903,13 +5902,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="D175" s="1">
         <v>17.839884999999999</v>
@@ -5926,13 +5925,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D176" s="1">
         <v>19.996976</v>
@@ -5949,13 +5948,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D177" s="1">
         <v>17.557409</v>
@@ -5972,13 +5971,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D178" s="1">
         <v>26.885753999999999</v>
@@ -5995,13 +5994,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D179" s="1">
         <v>23.007313</v>
@@ -6018,13 +6017,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D180" s="1">
         <v>18.005056</v>
@@ -6041,13 +6040,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D181" s="1">
         <v>25.980965999999999</v>
@@ -6064,13 +6063,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="D182" s="1">
         <v>16.418261999999999</v>
@@ -6087,13 +6086,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D183" s="1">
         <v>16.706448999999999</v>
@@ -6110,13 +6109,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D184" s="1">
         <v>17.616883999999999</v>
@@ -6133,13 +6132,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D185" s="1">
         <v>27.176233</v>
@@ -6156,13 +6155,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D186" s="1">
         <v>17.879346999999999</v>
@@ -6179,13 +6178,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D187" s="1">
         <v>25.85782</v>
@@ -6202,13 +6201,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="D188" s="1">
         <v>24.722766</v>
@@ -6225,13 +6224,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D189" s="1">
         <v>26.770962999999998</v>
@@ -6248,13 +6247,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="D190" s="1">
         <v>29.814852999999999</v>
@@ -6271,13 +6270,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="D191" s="1">
         <v>25.993690000000001</v>
@@ -6294,13 +6293,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="D192" s="1">
         <v>28.481770000000001</v>
@@ -6317,13 +6316,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="D193" s="1">
         <v>18.929939999999998</v>
@@ -6340,13 +6339,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="D194" s="1">
         <v>24.143189</v>
@@ -6363,13 +6362,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="D195" s="1">
         <v>28.306004999999999</v>
@@ -6386,13 +6385,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
+      </c>
+      <c r="C196" t="s">
+        <v>479</v>
       </c>
       <c r="D196" s="1">
         <v>25.498842</v>
@@ -6409,13 +6408,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D197" s="1">
         <v>25.861777</v>
@@ -6432,13 +6431,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D198" s="1">
         <v>27.829885999999998</v>
@@ -6455,13 +6454,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D199" s="1">
         <v>23.827192</v>
@@ -6478,13 +6477,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D200" s="1">
         <v>28.414908</v>
@@ -6501,13 +6500,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D201" s="1">
         <v>20.01211</v>
@@ -6524,13 +6523,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D202" s="1">
         <v>23.525065000000001</v>
@@ -6547,13 +6546,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D203" s="1">
         <v>29.066296999999999</v>
@@ -6570,13 +6569,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D204" s="1">
         <v>28.119717000000001</v>
@@ -6593,13 +6592,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D205" s="1">
         <v>18.207560999999998</v>
@@ -6616,13 +6615,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D206" s="1">
         <v>26.289522000000002</v>
@@ -6639,13 +6638,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D207" s="1">
         <v>24.649664000000001</v>
@@ -6662,13 +6661,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D208" s="1">
         <v>20.057017999999999</v>
@@ -6685,13 +6684,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D209" s="1">
         <v>30.114979000000002</v>
@@ -6708,13 +6707,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D210" s="1">
         <v>28.533577999999999</v>
@@ -6731,13 +6730,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D211" s="1">
         <v>26.495999999999999</v>
@@ -6754,13 +6753,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D212" s="1">
         <v>26.030308999999999</v>
@@ -6777,13 +6776,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
+      </c>
+      <c r="C213" t="s">
+        <v>480</v>
       </c>
       <c r="D213" s="1">
         <v>20.233799999999999</v>
@@ -6800,13 +6799,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D214" s="1">
         <v>20.910491</v>
@@ -6823,13 +6822,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D215" s="1">
         <v>29.888501999999999</v>
@@ -6846,13 +6845,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D216" s="1">
         <v>19.479142</v>
@@ -6868,8 +6867,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
+  <autoFilter ref="A1:G216"/>
+  <sortState ref="A2:G91">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eslam Alaa\Desktop\KSA_COVID19-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94993592-B96F-4C59-9103-2933FD0970B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$216</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="483">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -740,6 +741,9 @@
     <t>Umluj</t>
   </si>
   <si>
+    <t>املج</t>
+  </si>
+  <si>
     <t>Al Darb</t>
   </si>
   <si>
@@ -1352,6 +1356,9 @@
     <t>Samudah</t>
   </si>
   <si>
+    <t xml:space="preserve">سامودة </t>
+  </si>
+  <si>
     <t>Qaryat</t>
   </si>
   <si>
@@ -1451,6 +1458,9 @@
     <t>Hajrah</t>
   </si>
   <si>
+    <t>الحجرة</t>
+  </si>
+  <si>
     <t>Abu Rakh</t>
   </si>
   <si>
@@ -1469,10 +1479,7 @@
     <t>ترج</t>
   </si>
   <si>
-    <t>أملج</t>
-  </si>
-  <si>
-    <t>سامودة</t>
+    <t>Hegra</t>
   </si>
   <si>
     <t>الحجر</t>
@@ -1481,7 +1488,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1879,12 +1886,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G216"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2327,7 @@
         <v>186</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D19" s="1">
         <v>29.627300000000002</v>
@@ -2550,7 +2557,7 @@
         <v>183</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D29" s="1">
         <v>23.525065000000001</v>
@@ -2895,7 +2902,7 @@
         <v>116</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D44" s="1">
         <v>27.345700000000001</v>
@@ -3148,7 +3155,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D55" s="1">
         <v>18.5474</v>
@@ -3332,7 +3339,7 @@
         <v>94</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D63" s="1">
         <v>22.741800000000001</v>
@@ -3447,7 +3454,7 @@
         <v>199</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D68" s="1">
         <v>21.208628000000001</v>
@@ -3631,7 +3638,7 @@
         <v>98</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D76" s="1">
         <v>19.5718</v>
@@ -3953,7 +3960,7 @@
         <v>200</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D90" s="1">
         <v>20.595102499999999</v>
@@ -3976,7 +3983,7 @@
         <v>222</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D91" s="1">
         <v>20.435752999999998</v>
@@ -4113,8 +4120,8 @@
       <c r="B97" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C97" t="s">
-        <v>478</v>
+      <c r="C97" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D97" s="1">
         <v>25.049199999999999</v>
@@ -4131,13 +4138,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D98" s="1">
         <v>17.734352999999999</v>
@@ -4154,13 +4161,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D99" s="1">
         <v>26.661256999999999</v>
@@ -4177,13 +4184,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D100" s="1">
         <v>27.557566000000001</v>
@@ -4200,13 +4207,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D101" s="1">
         <v>24.741019999999999</v>
@@ -4223,13 +4230,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D102" s="1">
         <v>25.686066</v>
@@ -4246,13 +4253,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D103" s="1">
         <v>17.237791999999999</v>
@@ -4269,13 +4276,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D104" s="1">
         <v>24.613032</v>
@@ -4292,13 +4299,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D105" s="1">
         <v>22.290050000000001</v>
@@ -4315,13 +4322,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D106" s="1">
         <v>21.05489</v>
@@ -4338,13 +4345,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D107" s="1">
         <v>22.284344999999998</v>
@@ -4361,13 +4368,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D108" s="1">
         <v>26.788481000000001</v>
@@ -4384,13 +4391,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D109" s="1">
         <v>30.072724000000001</v>
@@ -4407,13 +4414,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D110" s="1">
         <v>17.338950000000001</v>
@@ -4430,13 +4437,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D111" s="1">
         <v>19.532979000000001</v>
@@ -4453,13 +4460,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D112" s="1">
         <v>25.279633</v>
@@ -4476,13 +4483,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D113" s="1">
         <v>31.370989999999999</v>
@@ -4499,13 +4506,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D114" s="1">
         <v>18.100155999999998</v>
@@ -4522,13 +4529,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D115" s="1">
         <v>27.267593000000002</v>
@@ -4545,13 +4552,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D116" s="1">
         <v>23.976928000000001</v>
@@ -4568,13 +4575,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D117" s="1">
         <v>35.717683999999998</v>
@@ -4591,13 +4598,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D118" s="1">
         <v>31.514769999999999</v>
@@ -4614,13 +4621,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D119" s="1">
         <v>19.943904</v>
@@ -4637,13 +4644,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D120" s="1">
         <v>31.282564000000001</v>
@@ -4660,13 +4667,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D121" s="1">
         <v>19.573253999999999</v>
@@ -4683,13 +4690,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D122" s="1">
         <v>25.247889000000001</v>
@@ -4706,13 +4713,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D123" s="1">
         <v>25.115893</v>
@@ -4729,13 +4736,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D124" s="1">
         <v>23.542763999999998</v>
@@ -4752,13 +4759,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D125" s="1">
         <v>20.466460000000001</v>
@@ -4775,13 +4782,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D126" s="1">
         <v>23.774208999999999</v>
@@ -4798,13 +4805,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D127" s="1">
         <v>18.241785</v>
@@ -4821,13 +4828,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D128" s="1">
         <v>27.610130000000002</v>
@@ -4844,13 +4851,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D129" s="1">
         <v>24.540604999999999</v>
@@ -4867,13 +4874,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D130" s="1">
         <v>25.069855</v>
@@ -4913,13 +4920,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D132" s="3">
         <v>25.419733999999998</v>
@@ -4936,13 +4943,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D133" s="1">
         <v>29.285453</v>
@@ -4959,13 +4966,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D134" s="1">
         <v>18.97634</v>
@@ -4982,13 +4989,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D135" s="1">
         <v>25.563182000000001</v>
@@ -5005,13 +5012,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D136" s="1">
         <v>17.407972000000001</v>
@@ -5028,13 +5035,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D137" s="1">
         <v>19.919412999999999</v>
@@ -5051,13 +5058,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D138" s="1">
         <v>25.480855999999999</v>
@@ -5074,13 +5081,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D139" s="1">
         <v>25.710602999999999</v>
@@ -5097,13 +5104,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D140" s="1">
         <v>30.589766999999998</v>
@@ -5120,13 +5127,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D141" s="1">
         <v>25.674498</v>
@@ -5143,13 +5150,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D142" s="1">
         <v>22.276098999999999</v>
@@ -5166,13 +5173,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D143" s="1">
         <v>31.665737</v>
@@ -5189,13 +5196,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D144" s="1">
         <v>24.679561</v>
@@ -5212,13 +5219,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D145" s="1">
         <v>19.741637000000001</v>
@@ -5235,13 +5242,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D146" s="1">
         <v>17.664974000000001</v>
@@ -5258,13 +5265,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D147" s="1">
         <v>24.130382000000001</v>
@@ -5281,13 +5288,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D148" s="1">
         <v>26.516076000000002</v>
@@ -5304,13 +5311,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D149" s="1">
         <v>19.115787999999998</v>
@@ -5327,13 +5334,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D150" s="1">
         <v>18.793106000000002</v>
@@ -5350,13 +5357,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D151" s="1">
         <v>16.811212999999999</v>
@@ -5373,13 +5380,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D152" s="1">
         <v>27.889050000000001</v>
@@ -5396,13 +5403,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D153" s="1">
         <v>27.378982000000001</v>
@@ -5419,13 +5426,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D154" s="1">
         <v>23.624414000000002</v>
@@ -5442,13 +5449,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D155" s="1">
         <v>27.469104999999999</v>
@@ -5465,13 +5472,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D156" s="1">
         <v>17.981574999999999</v>
@@ -5488,13 +5495,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D157" s="1">
         <v>17.753822</v>
@@ -5511,13 +5518,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D158" s="1">
         <v>17.246535999999999</v>
@@ -5534,13 +5541,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D159" s="1">
         <v>16.711358000000001</v>
@@ -5557,13 +5564,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D160" s="1">
         <v>22.497288999999999</v>
@@ -5580,13 +5587,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D161" s="1">
         <v>21.263856000000001</v>
@@ -5603,13 +5610,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D162" s="1">
         <v>17.110188999999998</v>
@@ -5626,13 +5633,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D163" s="1">
         <v>25.014095000000001</v>
@@ -5649,13 +5656,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D164" s="3">
         <v>27.448889000000001</v>
@@ -5672,13 +5679,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D165" s="1">
         <v>23.905038999999999</v>
@@ -5695,13 +5702,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D166" s="1">
         <v>30.353563999999999</v>
@@ -5718,13 +5725,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D167" s="1">
         <v>18.583217999999999</v>
@@ -5741,13 +5748,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D168" s="1">
         <v>23.406562000000001</v>
@@ -5764,13 +5771,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D169" s="1">
         <v>18.933194</v>
@@ -5787,13 +5794,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D170" s="1">
         <v>18.532356</v>
@@ -5810,13 +5817,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C171" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D171" s="1">
         <v>26.501619999999999</v>
@@ -5833,13 +5840,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D172" s="1">
         <v>23.61806</v>
@@ -5856,13 +5863,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D173" s="1">
         <v>21.645588</v>
@@ -5879,13 +5886,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D174" s="1">
         <v>17.920961999999999</v>
@@ -5902,13 +5909,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D175" s="1">
         <v>17.839884999999999</v>
@@ -5925,13 +5932,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D176" s="1">
         <v>19.996976</v>
@@ -5948,13 +5955,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D177" s="1">
         <v>17.557409</v>
@@ -5971,13 +5978,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D178" s="1">
         <v>26.885753999999999</v>
@@ -5994,13 +6001,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D179" s="1">
         <v>23.007313</v>
@@ -6017,13 +6024,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D180" s="1">
         <v>18.005056</v>
@@ -6040,13 +6047,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D181" s="1">
         <v>25.980965999999999</v>
@@ -6063,13 +6070,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D182" s="1">
         <v>16.418261999999999</v>
@@ -6086,13 +6093,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D183" s="1">
         <v>16.706448999999999</v>
@@ -6109,13 +6116,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D184" s="1">
         <v>17.616883999999999</v>
@@ -6132,13 +6139,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D185" s="1">
         <v>27.176233</v>
@@ -6155,13 +6162,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D186" s="1">
         <v>17.879346999999999</v>
@@ -6178,13 +6185,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D187" s="1">
         <v>25.85782</v>
@@ -6201,13 +6208,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D188" s="1">
         <v>24.722766</v>
@@ -6224,13 +6231,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D189" s="1">
         <v>26.770962999999998</v>
@@ -6247,13 +6254,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D190" s="1">
         <v>29.814852999999999</v>
@@ -6270,13 +6277,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D191" s="1">
         <v>25.993690000000001</v>
@@ -6293,13 +6300,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D192" s="1">
         <v>28.481770000000001</v>
@@ -6316,13 +6323,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D193" s="1">
         <v>18.929939999999998</v>
@@ -6339,13 +6346,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D194" s="1">
         <v>24.143189</v>
@@ -6362,13 +6369,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D195" s="1">
         <v>28.306004999999999</v>
@@ -6385,13 +6392,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C196" t="s">
-        <v>479</v>
+        <v>439</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="D196" s="1">
         <v>25.498842</v>
@@ -6408,13 +6415,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D197" s="1">
         <v>25.861777</v>
@@ -6431,13 +6438,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D198" s="1">
         <v>27.829885999999998</v>
@@ -6454,13 +6461,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D199" s="1">
         <v>23.827192</v>
@@ -6477,13 +6484,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D200" s="1">
         <v>28.414908</v>
@@ -6500,13 +6507,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D201" s="1">
         <v>20.01211</v>
@@ -6523,13 +6530,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D202" s="1">
         <v>23.525065000000001</v>
@@ -6546,13 +6553,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D203" s="1">
         <v>29.066296999999999</v>
@@ -6569,13 +6576,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D204" s="1">
         <v>28.119717000000001</v>
@@ -6592,13 +6599,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D205" s="1">
         <v>18.207560999999998</v>
@@ -6615,13 +6622,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D206" s="1">
         <v>26.289522000000002</v>
@@ -6638,13 +6645,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D207" s="1">
         <v>24.649664000000001</v>
@@ -6661,13 +6668,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D208" s="1">
         <v>20.057017999999999</v>
@@ -6684,13 +6691,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D209" s="1">
         <v>30.114979000000002</v>
@@ -6707,13 +6714,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D210" s="1">
         <v>28.533577999999999</v>
@@ -6730,13 +6737,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D211" s="1">
         <v>26.495999999999999</v>
@@ -6753,13 +6760,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D212" s="1">
         <v>26.030308999999999</v>
@@ -6776,13 +6783,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C213" t="s">
-        <v>480</v>
+        <v>473</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="D213" s="1">
         <v>20.233799999999999</v>
@@ -6799,13 +6806,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D214" s="1">
         <v>20.910491</v>
@@ -6822,13 +6829,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D215" s="1">
         <v>29.888501999999999</v>
@@ -6845,13 +6852,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D216" s="1">
         <v>19.479142</v>
@@ -6866,9 +6873,32 @@
         <v>217</v>
       </c>
     </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D217" s="1">
+        <v>26.891022</v>
+      </c>
+      <c r="E217" s="1">
+        <v>37.959600999999999</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G216"/>
-  <sortState ref="A2:G91">
+  <autoFilter ref="A1:G216" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eslam Alaa\Desktop\KSA_COVID19-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94993592-B96F-4C59-9103-2933FD0970B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B7B61C-7014-450A-AB37-C543614A294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$217</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -741,9 +744,6 @@
     <t>Umluj</t>
   </si>
   <si>
-    <t>املج</t>
-  </si>
-  <si>
     <t>Al Darb</t>
   </si>
   <si>
@@ -1356,9 +1356,6 @@
     <t>Samudah</t>
   </si>
   <si>
-    <t xml:space="preserve">سامودة </t>
-  </si>
-  <si>
     <t>Qaryat</t>
   </si>
   <si>
@@ -1483,6 +1480,12 @@
   </si>
   <si>
     <t>الحجر</t>
+  </si>
+  <si>
+    <t>أملج</t>
+  </si>
+  <si>
+    <t>سامودة</t>
   </si>
 </sst>
 </file>
@@ -1890,8 +1893,8 @@
   <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G217" sqref="G217"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,7 +2330,7 @@
         <v>186</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D19" s="1">
         <v>29.627300000000002</v>
@@ -2557,7 +2560,7 @@
         <v>183</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D29" s="1">
         <v>23.525065000000001</v>
@@ -2902,7 +2905,7 @@
         <v>116</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D44" s="1">
         <v>27.345700000000001</v>
@@ -3155,7 +3158,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D55" s="1">
         <v>18.5474</v>
@@ -3339,7 +3342,7 @@
         <v>94</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D63" s="1">
         <v>22.741800000000001</v>
@@ -3454,7 +3457,7 @@
         <v>199</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D68" s="1">
         <v>21.208628000000001</v>
@@ -3638,7 +3641,7 @@
         <v>98</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D76" s="1">
         <v>19.5718</v>
@@ -3960,7 +3963,7 @@
         <v>200</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D90" s="1">
         <v>20.595102499999999</v>
@@ -3983,7 +3986,7 @@
         <v>222</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D91" s="1">
         <v>20.435752999999998</v>
@@ -4121,7 +4124,7 @@
         <v>234</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>235</v>
+        <v>481</v>
       </c>
       <c r="D97" s="1">
         <v>25.049199999999999</v>
@@ -4138,13 +4141,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D98" s="1">
         <v>17.734352999999999</v>
@@ -4161,13 +4164,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="D99" s="1">
         <v>26.661256999999999</v>
@@ -4184,13 +4187,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D100" s="1">
         <v>27.557566000000001</v>
@@ -4207,13 +4210,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D101" s="1">
         <v>24.741019999999999</v>
@@ -4230,13 +4233,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D102" s="1">
         <v>25.686066</v>
@@ -4253,13 +4256,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D103" s="1">
         <v>17.237791999999999</v>
@@ -4276,13 +4279,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D104" s="1">
         <v>24.613032</v>
@@ -4299,13 +4302,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D105" s="1">
         <v>22.290050000000001</v>
@@ -4322,13 +4325,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D106" s="1">
         <v>21.05489</v>
@@ -4345,13 +4348,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D107" s="1">
         <v>22.284344999999998</v>
@@ -4368,13 +4371,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D108" s="1">
         <v>26.788481000000001</v>
@@ -4391,13 +4394,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D109" s="1">
         <v>30.072724000000001</v>
@@ -4414,13 +4417,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D110" s="1">
         <v>17.338950000000001</v>
@@ -4437,13 +4440,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D111" s="1">
         <v>19.532979000000001</v>
@@ -4460,13 +4463,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D112" s="1">
         <v>25.279633</v>
@@ -4483,13 +4486,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D113" s="1">
         <v>31.370989999999999</v>
@@ -4506,13 +4509,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D114" s="1">
         <v>18.100155999999998</v>
@@ -4529,13 +4532,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D115" s="1">
         <v>27.267593000000002</v>
@@ -4552,13 +4555,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D116" s="1">
         <v>23.976928000000001</v>
@@ -4575,13 +4578,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D117" s="1">
         <v>35.717683999999998</v>
@@ -4598,13 +4601,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D118" s="1">
         <v>31.514769999999999</v>
@@ -4621,13 +4624,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D119" s="1">
         <v>19.943904</v>
@@ -4644,13 +4647,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D120" s="1">
         <v>31.282564000000001</v>
@@ -4667,13 +4670,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D121" s="1">
         <v>19.573253999999999</v>
@@ -4690,13 +4693,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D122" s="1">
         <v>25.247889000000001</v>
@@ -4713,13 +4716,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="D123" s="1">
         <v>25.115893</v>
@@ -4736,13 +4739,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D124" s="1">
         <v>23.542763999999998</v>
@@ -4759,13 +4762,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D125" s="1">
         <v>20.466460000000001</v>
@@ -4782,13 +4785,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D126" s="1">
         <v>23.774208999999999</v>
@@ -4805,13 +4808,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D127" s="1">
         <v>18.241785</v>
@@ -4828,13 +4831,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D128" s="1">
         <v>27.610130000000002</v>
@@ -4851,13 +4854,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D129" s="1">
         <v>24.540604999999999</v>
@@ -4874,13 +4877,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D130" s="1">
         <v>25.069855</v>
@@ -4920,13 +4923,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D132" s="3">
         <v>25.419733999999998</v>
@@ -4943,13 +4946,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D133" s="1">
         <v>29.285453</v>
@@ -4966,13 +4969,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="D134" s="1">
         <v>18.97634</v>
@@ -4989,13 +4992,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="D135" s="1">
         <v>25.563182000000001</v>
@@ -5012,13 +5015,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D136" s="1">
         <v>17.407972000000001</v>
@@ -5035,13 +5038,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D137" s="1">
         <v>19.919412999999999</v>
@@ -5058,13 +5061,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D138" s="1">
         <v>25.480855999999999</v>
@@ -5081,13 +5084,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D139" s="1">
         <v>25.710602999999999</v>
@@ -5104,13 +5107,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D140" s="1">
         <v>30.589766999999998</v>
@@ -5127,13 +5130,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D141" s="1">
         <v>25.674498</v>
@@ -5150,13 +5153,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D142" s="1">
         <v>22.276098999999999</v>
@@ -5173,13 +5176,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D143" s="1">
         <v>31.665737</v>
@@ -5196,13 +5199,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D144" s="1">
         <v>24.679561</v>
@@ -5219,13 +5222,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D145" s="1">
         <v>19.741637000000001</v>
@@ -5242,13 +5245,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="D146" s="1">
         <v>17.664974000000001</v>
@@ -5265,13 +5268,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D147" s="1">
         <v>24.130382000000001</v>
@@ -5288,13 +5291,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D148" s="1">
         <v>26.516076000000002</v>
@@ -5311,13 +5314,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D149" s="1">
         <v>19.115787999999998</v>
@@ -5334,13 +5337,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="D150" s="1">
         <v>18.793106000000002</v>
@@ -5357,13 +5360,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D151" s="1">
         <v>16.811212999999999</v>
@@ -5380,13 +5383,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D152" s="1">
         <v>27.889050000000001</v>
@@ -5403,13 +5406,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D153" s="1">
         <v>27.378982000000001</v>
@@ -5426,13 +5429,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D154" s="1">
         <v>23.624414000000002</v>
@@ -5449,13 +5452,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D155" s="1">
         <v>27.469104999999999</v>
@@ -5472,13 +5475,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D156" s="1">
         <v>17.981574999999999</v>
@@ -5495,13 +5498,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D157" s="1">
         <v>17.753822</v>
@@ -5518,13 +5521,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D158" s="1">
         <v>17.246535999999999</v>
@@ -5541,13 +5544,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D159" s="1">
         <v>16.711358000000001</v>
@@ -5564,13 +5567,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D160" s="1">
         <v>22.497288999999999</v>
@@ -5587,13 +5590,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D161" s="1">
         <v>21.263856000000001</v>
@@ -5610,13 +5613,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D162" s="1">
         <v>17.110188999999998</v>
@@ -5633,13 +5636,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D163" s="1">
         <v>25.014095000000001</v>
@@ -5656,13 +5659,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D164" s="3">
         <v>27.448889000000001</v>
@@ -5679,13 +5682,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D165" s="1">
         <v>23.905038999999999</v>
@@ -5702,13 +5705,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D166" s="1">
         <v>30.353563999999999</v>
@@ -5725,13 +5728,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D167" s="1">
         <v>18.583217999999999</v>
@@ -5748,13 +5751,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D168" s="1">
         <v>23.406562000000001</v>
@@ -5771,13 +5774,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D169" s="1">
         <v>18.933194</v>
@@ -5794,13 +5797,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D170" s="1">
         <v>18.532356</v>
@@ -5817,13 +5820,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D171" s="1">
         <v>26.501619999999999</v>
@@ -5840,13 +5843,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D172" s="1">
         <v>23.61806</v>
@@ -5863,13 +5866,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D173" s="1">
         <v>21.645588</v>
@@ -5886,13 +5889,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D174" s="1">
         <v>17.920961999999999</v>
@@ -5909,13 +5912,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="D175" s="1">
         <v>17.839884999999999</v>
@@ -5932,13 +5935,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D176" s="1">
         <v>19.996976</v>
@@ -5955,13 +5958,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D177" s="1">
         <v>17.557409</v>
@@ -5978,13 +5981,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D178" s="1">
         <v>26.885753999999999</v>
@@ -6001,13 +6004,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D179" s="1">
         <v>23.007313</v>
@@ -6024,13 +6027,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D180" s="1">
         <v>18.005056</v>
@@ -6047,13 +6050,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D181" s="1">
         <v>25.980965999999999</v>
@@ -6070,13 +6073,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="D182" s="1">
         <v>16.418261999999999</v>
@@ -6093,13 +6096,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D183" s="1">
         <v>16.706448999999999</v>
@@ -6116,13 +6119,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D184" s="1">
         <v>17.616883999999999</v>
@@ -6139,13 +6142,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D185" s="1">
         <v>27.176233</v>
@@ -6162,13 +6165,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D186" s="1">
         <v>17.879346999999999</v>
@@ -6185,13 +6188,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D187" s="1">
         <v>25.85782</v>
@@ -6208,13 +6211,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="D188" s="1">
         <v>24.722766</v>
@@ -6231,13 +6234,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D189" s="1">
         <v>26.770962999999998</v>
@@ -6254,13 +6257,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="D190" s="1">
         <v>29.814852999999999</v>
@@ -6277,13 +6280,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="D191" s="1">
         <v>25.993690000000001</v>
@@ -6300,13 +6303,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="D192" s="1">
         <v>28.481770000000001</v>
@@ -6323,13 +6326,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="D193" s="1">
         <v>18.929939999999998</v>
@@ -6346,13 +6349,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="D194" s="1">
         <v>24.143189</v>
@@ -6369,13 +6372,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="D195" s="1">
         <v>28.306004999999999</v>
@@ -6392,13 +6395,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
+      </c>
+      <c r="C196" t="s">
+        <v>482</v>
       </c>
       <c r="D196" s="1">
         <v>25.498842</v>
@@ -6415,13 +6418,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D197" s="1">
         <v>25.861777</v>
@@ -6438,13 +6441,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D198" s="1">
         <v>27.829885999999998</v>
@@ -6461,13 +6464,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D199" s="1">
         <v>23.827192</v>
@@ -6484,13 +6487,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D200" s="1">
         <v>28.414908</v>
@@ -6507,13 +6510,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D201" s="1">
         <v>20.01211</v>
@@ -6530,13 +6533,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D202" s="1">
         <v>23.525065000000001</v>
@@ -6553,13 +6556,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D203" s="1">
         <v>29.066296999999999</v>
@@ -6576,13 +6579,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D204" s="1">
         <v>28.119717000000001</v>
@@ -6599,13 +6602,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D205" s="1">
         <v>18.207560999999998</v>
@@ -6622,13 +6625,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D206" s="1">
         <v>26.289522000000002</v>
@@ -6645,13 +6648,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D207" s="1">
         <v>24.649664000000001</v>
@@ -6668,13 +6671,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D208" s="1">
         <v>20.057017999999999</v>
@@ -6691,13 +6694,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D209" s="1">
         <v>30.114979000000002</v>
@@ -6714,13 +6717,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D210" s="1">
         <v>28.533577999999999</v>
@@ -6737,13 +6740,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D211" s="1">
         <v>26.495999999999999</v>
@@ -6760,13 +6763,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D212" s="1">
         <v>26.030308999999999</v>
@@ -6783,13 +6786,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D213" s="1">
         <v>20.233799999999999</v>
@@ -6806,13 +6809,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D214" s="1">
         <v>20.910491</v>
@@ -6829,13 +6832,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D215" s="1">
         <v>29.888501999999999</v>
@@ -6852,13 +6855,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D216" s="1">
         <v>19.479142</v>
@@ -6875,13 +6878,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D217" s="1">
         <v>26.891022</v>
@@ -6897,7 +6900,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G216" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
+  <autoFilter ref="A1:G217" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
     <sortCondition ref="F1"/>
   </sortState>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eslam Alaa\Desktop\KSA_COVID19-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B7B61C-7014-450A-AB37-C543614A294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$216</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,10 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="481">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1455,9 +1451,6 @@
     <t>Hajrah</t>
   </si>
   <si>
-    <t>الحجرة</t>
-  </si>
-  <si>
     <t>Abu Rakh</t>
   </si>
   <si>
@@ -1476,22 +1469,19 @@
     <t>ترج</t>
   </si>
   <si>
-    <t>Hegra</t>
+    <t>أملج</t>
+  </si>
+  <si>
+    <t>سامودة</t>
   </si>
   <si>
     <t>الحجر</t>
-  </si>
-  <si>
-    <t>أملج</t>
-  </si>
-  <si>
-    <t>سامودة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1889,12 +1879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G217"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
+      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,8 +4113,8 @@
       <c r="B97" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>481</v>
+      <c r="C97" t="s">
+        <v>478</v>
       </c>
       <c r="D97" s="1">
         <v>25.049199999999999</v>
@@ -6401,7 +6391,7 @@
         <v>438</v>
       </c>
       <c r="C196" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D196" s="1">
         <v>25.498842</v>
@@ -6791,8 +6781,8 @@
       <c r="B213" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>472</v>
+      <c r="C213" t="s">
+        <v>480</v>
       </c>
       <c r="D213" s="1">
         <v>20.233799999999999</v>
@@ -6809,13 +6799,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="D214" s="1">
         <v>20.910491</v>
@@ -6832,13 +6822,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="D215" s="1">
         <v>29.888501999999999</v>
@@ -6855,13 +6845,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D216" s="1">
         <v>19.479142</v>
@@ -6876,32 +6866,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D217" s="1">
-        <v>26.891022</v>
-      </c>
-      <c r="E217" s="1">
-        <v>37.959600999999999</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G217" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
+  <autoFilter ref="A1:G216"/>
+  <sortState ref="A2:G91">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eslam Alaa\Desktop\KSA_COVID19-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4287811-994A-4256-96CC-A7E04E330135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="870" windowWidth="28800" windowHeight="15330" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$216</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="483">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1451,6 +1452,9 @@
     <t>Hajrah</t>
   </si>
   <si>
+    <t>الحجرة</t>
+  </si>
+  <si>
     <t>Abu Rakh</t>
   </si>
   <si>
@@ -1469,19 +1473,22 @@
     <t>ترج</t>
   </si>
   <si>
+    <t>Hegra</t>
+  </si>
+  <si>
+    <t>الحجر</t>
+  </si>
+  <si>
     <t>أملج</t>
   </si>
   <si>
     <t>سامودة</t>
-  </si>
-  <si>
-    <t>الحجر</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1531,7 +1538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1554,17 +1561,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1879,12 +1898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G216"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,8 +4132,8 @@
       <c r="B97" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C97" t="s">
-        <v>478</v>
+      <c r="C97" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="D97" s="1">
         <v>25.049199999999999</v>
@@ -6391,7 +6410,7 @@
         <v>438</v>
       </c>
       <c r="C196" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D196" s="1">
         <v>25.498842</v>
@@ -6781,8 +6800,8 @@
       <c r="B213" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C213" t="s">
-        <v>480</v>
+      <c r="C213" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="D213" s="1">
         <v>20.233799999999999</v>
@@ -6799,13 +6818,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D214" s="1">
         <v>20.910491</v>
@@ -6822,13 +6841,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D215" s="1">
         <v>29.888501999999999</v>
@@ -6845,13 +6864,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D216" s="1">
         <v>19.479142</v>
@@ -6866,9 +6885,32 @@
         <v>217</v>
       </c>
     </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D217" s="1">
+        <v>26.891022</v>
+      </c>
+      <c r="E217" s="1">
+        <v>37.959600999999999</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G216"/>
-  <sortState ref="A2:G91">
+  <autoFilter ref="A1:G216" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
